--- a/Anastasia.xlsx
+++ b/Anastasia.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghena\Desktop\reger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC1882B-A1BE-46E9-A710-9E038D184165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216E3397-A374-4FEF-A772-5509A37870BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="1752" windowWidth="12948" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+  <si>
+    <t>23.10.21</t>
+  </si>
+  <si>
+    <t>10.11.2021</t>
+  </si>
+  <si>
+    <t>12.01.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата </t>
+  </si>
+  <si>
+    <t>Автор</t>
+  </si>
+  <si>
+    <t>Название прщизедения</t>
+  </si>
+  <si>
+    <t>Текущее положение</t>
+  </si>
+  <si>
+    <t>У.Шекспир</t>
+  </si>
+  <si>
+    <t>Стивен А.Росс, Брэлфорд Д.Джордан, Рэндольф У.Вестерфилд</t>
+  </si>
+  <si>
+    <t>Сонета 10</t>
+  </si>
+  <si>
+    <t>Основы корпоративных финансов</t>
+  </si>
+  <si>
+    <t>Сергей Лукьяненко</t>
+  </si>
+  <si>
+    <t>Прыжок</t>
+  </si>
+  <si>
+    <t>стр. 45</t>
+  </si>
+  <si>
+    <t>стр. 40</t>
+  </si>
+  <si>
+    <t>стр. 3</t>
+  </si>
+  <si>
+    <t>Lelica Andrian</t>
+  </si>
   <si>
     <r>
       <t>N</t>
@@ -34,7 +88,7 @@
       <rPr>
         <u/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -42,63 +96,12 @@
       <t>o</t>
     </r>
   </si>
-  <si>
-    <t>23.10.21</t>
-  </si>
-  <si>
-    <t>10.11.2021</t>
-  </si>
-  <si>
-    <t>12.01.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дата </t>
-  </si>
-  <si>
-    <t>Автор</t>
-  </si>
-  <si>
-    <t>Название прщизедения</t>
-  </si>
-  <si>
-    <t>Текущее положение</t>
-  </si>
-  <si>
-    <t>У.Шекспир</t>
-  </si>
-  <si>
-    <t>Стивен А.Росс, Брэлфорд Д.Джордан, Рэндольф У.Вестерфилд</t>
-  </si>
-  <si>
-    <t>Сонета 10</t>
-  </si>
-  <si>
-    <t>Основы корпоративных финансов</t>
-  </si>
-  <si>
-    <t>Сергей Лукьяненко</t>
-  </si>
-  <si>
-    <t>Прыжок</t>
-  </si>
-  <si>
-    <t>стр. 45</t>
-  </si>
-  <si>
-    <t>стр. 40</t>
-  </si>
-  <si>
-    <t>стр. 3</t>
-  </si>
-  <si>
-    <t>Lelica Andrian</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,20 +110,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -135,14 +151,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -420,95 +438,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F9"/>
+  <dimension ref="B1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="35.5546875" customWidth="1"/>
-    <col min="5" max="5" width="31.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44666</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44363</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>17</v>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44025</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Anastasia.xlsx
+++ b/Anastasia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghena\Desktop\reger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216E3397-A374-4FEF-A772-5509A37870BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DBADB5-4853-4956-83C7-FA34A50F6332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -147,17 +147,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -441,7 +457,7 @@
   <dimension ref="B1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B1" sqref="B1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,121 +470,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>44666</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>44363</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>44025</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
